--- a/v252/Messungen.xlsx
+++ b/v252/Messungen.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$G$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$G$52</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Intervall</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Indium</t>
+  </si>
+  <si>
+    <t>Untergrd</t>
   </si>
 </sst>
 </file>
@@ -88,25 +91,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -128,9 +118,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -141,9 +129,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -152,16 +138,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,876 +448,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
         <v>151</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>168</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>173</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>171</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>1490</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
         <v>134</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>118</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>144</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>103</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>1390</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="4">
+        <v>101</v>
+      </c>
+      <c r="E6" s="4">
         <v>100</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>115</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>1343</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
         <v>85</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>93</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>75</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>84</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>1297</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
         <v>67</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>48</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>59</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>86</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>1286</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
         <v>65</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>72</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>50</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>61</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>1169</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>42</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>46</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>61</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>44</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>1131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
         <v>53</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>48</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44</v>
       </c>
       <c r="E11" s="4">
         <v>44</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7">
+      <c r="F11" s="4">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5">
         <v>1218</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
         <v>36</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>42</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>45</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>42</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>1162</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
         <v>33</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>37</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>34</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>33</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>1117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>31</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>21</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>31</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>1143</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
         <v>28</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>11</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>24</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>30</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>1091</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
         <v>25</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>27</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>19</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>46</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>1028</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
         <v>26</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>20</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>22</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>27</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>979</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
         <v>24</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>21</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>24</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>16</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
         <v>24</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>21</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>11</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>17</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>955</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
         <v>27</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>26</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>16</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>23</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>960</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>16</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>18</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>16</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>892</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
         <v>17</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>20</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>15</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>18</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>905</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
         <v>30</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>18</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>28</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>14</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>895</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
         <v>24</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>19</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>17</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>12</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>815</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
         <v>18</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>17</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>15</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>17</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>828</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>15</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>17</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>23</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <v>806</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
         <v>12</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>19</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>14</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>12</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>771</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="4">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
         <v>14</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>17</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>14</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>11</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <v>773</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>26</v>
       </c>
       <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
         <v>20</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>9</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>15</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>11</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>792</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="4">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4">
         <v>13</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>12</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>4</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>15</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="4">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4">
         <v>15</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>9</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>16</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>11</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>29</v>
       </c>
       <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4">
         <v>12</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>13</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>12</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>13</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>30</v>
       </c>
       <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
         <v>19</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>14</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>13</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>11</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="4">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4">
         <v>11</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>12</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>10</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>14</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4">
         <v>15</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>11</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>14</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>8</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4">
         <v>6</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>8</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>15</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>10</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="4">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4">
         <v>16</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>10</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>12</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>11</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>35</v>
       </c>
       <c r="B38" s="4">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4">
         <v>17</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>11</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>12</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>11</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="4">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
         <v>8</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>9</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>14</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>11</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>37</v>
       </c>
       <c r="B40" s="4">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4">
         <v>12</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>9</v>
-      </c>
-      <c r="D40" s="4">
-        <v>19</v>
       </c>
       <c r="E40" s="4">
         <v>19</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>19</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>38</v>
       </c>
       <c r="B41" s="4">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4">
         <v>10</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>13</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>7</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>12</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="4">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4">
         <v>10</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>12</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>9</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>13</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>40</v>
       </c>
       <c r="B43" s="4">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4">
         <v>15</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>12</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>4</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>9</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -1340,21 +1408,87 @@
         <v>5</v>
       </c>
       <c r="C44" s="4">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4">
         <v>9</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>7</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>11</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="110" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
